--- a/output/SharedHealthSummary/procedure-summary-1.xlsx
+++ b/output/SharedHealthSummary/procedure-summary-1.xlsx
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>Procedure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>Procedure.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>Procedure.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>Procedure.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -367,7 +367,7 @@
     <t>Procedure.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
+    <t xml:space="preserve">Reference(PlanDefinition|ActivityDefinition|HealthcareService)
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference(CarePlan|ProcedureRequest|ReferralRequest)
 </t>
   </si>
   <si>
@@ -407,7 +407,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration]]}
+    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
 </t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>Procedure.notDone</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
 This element is labeled as a modifier because it indicates that a procedure didn't happen.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+    <t>false</t>
   </si>
   <si>
     <t>.actionNegationInd</t>
@@ -477,7 +477,7 @@
     <t>Procedure.notDoneReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>Procedure.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Procedure.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -691,7 +691,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -713,8 +713,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Date/Period the procedure was performed</t>
@@ -735,7 +735,7 @@
     <t>Procedure.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -795,7 +795,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -839,7 +839,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -882,7 +882,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Condition|Observation)
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
+    <t xml:space="preserve">Reference(DiagnosticReport)
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -1014,7 +1014,7 @@
     <t>Procedure.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1075,7 +1075,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1091,7 +1091,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Medication], CanonicalType[http://hl7.org/fhir/StructureDefinition/Substance]]}
+    <t xml:space="preserve">Reference(Device|Medication|Substance)
 </t>
   </si>
   <si>
@@ -1179,67 +1179,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1275,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1298,7 +1298,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.45703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/output/SharedHealthSummary/procedure-summary-1.xlsx
+++ b/output/SharedHealthSummary/procedure-summary-1.xlsx
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>Procedure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>Procedure.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>Procedure.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>Procedure.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -367,7 +367,7 @@
     <t>Procedure.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PlanDefinition|ActivityDefinition|HealthcareService)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ProcedureRequest|ReferralRequest)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -407,7 +407,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration]]}
 </t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>Procedure.notDone</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
 This element is labeled as a modifier because it indicates that a procedure didn't happen.</t>
   </si>
   <si>
-    <t>false</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
   </si>
   <si>
     <t>.actionNegationInd</t>
@@ -477,7 +477,7 @@
     <t>Procedure.notDoneReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>Procedure.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Procedure.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -691,7 +691,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
 </t>
   </si>
   <si>
@@ -713,8 +713,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
   </si>
   <si>
     <t>Date/Period the procedure was performed</t>
@@ -735,7 +735,7 @@
     <t>Procedure.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -795,7 +795,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -839,7 +839,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
 </t>
   </si>
   <si>
@@ -882,7 +882,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
 </t>
   </si>
   <si>
@@ -1014,7 +1014,7 @@
     <t>Procedure.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -1075,7 +1075,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
 </t>
   </si>
   <si>
@@ -1091,7 +1091,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Medication|Substance)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Medication], CanonicalType[http://hl7.org/fhir/StructureDefinition/Substance]]}
 </t>
   </si>
   <si>
@@ -1179,67 +1179,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1275,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1298,7 +1298,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.45703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/output/SharedHealthSummary/procedure-summary-1.xlsx
+++ b/output/SharedHealthSummary/procedure-summary-1.xlsx
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}pro-1:Reason not done is only permitted if notDone indicator is true {notDoneReason.empty() or notDone = true}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}pro-1:Reason not done is only permitted if notDone indicator is true {notDoneReason.empty() or notDone = true}inv-dh-pro-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Procedure[moodCode=EVN]</t>
